--- a/NformTester/NformTester/Keywordscripts/600.10.30.110_ImportDeviceUsingDialogForEnteringPathnameofFlatFile.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.30.110_ImportDeviceUsingDialogForEnteringPathnameofFlatFile.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -1203,12 +1203,12 @@
     <definedName name="Pause">'Form DataValDepend'!$CD$1</definedName>
     <definedName name="PauseCol">'Form DataValDepend'!$CD:$CD</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7408" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7410" uniqueCount="833">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3735,15 +3735,21 @@
     <t>$SNMP_device_1$</t>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_1_NAME$</t>
-  </si>
-  <si>
     <t>"C:\Nform\user\export\6001030110_Device.csv"</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_0$</t>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_1$</t>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_default</t>
   </si>
 </sst>
 </file>
@@ -3910,7 +3916,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3921,8 +3927,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3968,11 +3977,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -3991,74 +4005,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -4483,14 +4429,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4769,8 +4715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4999,7 +4945,7 @@
         <v>826</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>797</v>
@@ -5038,7 +4984,7 @@
         <v>827</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>797</v>
@@ -5270,7 +5216,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -5457,6 +5403,12 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15">
+      <c r="A23" s="19" t="s">
+        <v>831</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>832</v>
+      </c>
       <c r="C23" s="5">
         <v>22</v>
       </c>
@@ -5821,7 +5773,7 @@
         <v>4</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -6248,7 +6200,7 @@
         <v>59</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
@@ -6275,7 +6227,7 @@
         <v>59</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
